--- a/public/application/files/jasper/templates/monitoreotablajeria.xlsx
+++ b/public/application/files/jasper/templates/monitoreotablajeria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27020" yWindow="0" windowWidth="25500" windowHeight="14620" tabRatio="500"/>
+    <workbookView xWindow="-32800" yWindow="920" windowWidth="25500" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>{col:cuatro}</t>
   </si>
   <si>
-    <t>Monitoreo de tablajería</t>
+    <t>Promedio de mermas</t>
   </si>
 </sst>
 </file>
@@ -208,6 +208,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -217,7 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -592,7 +592,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -601,45 +601,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="28">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="28">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="18">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
